--- a/scimagojr/scimagojr_2004.xlsx
+++ b/scimagojr/scimagojr_2004.xlsx
@@ -191,12 +191,12 @@
     <t>Africa/Middle East</t>
   </si>
   <si>
+    <t>Thailand</t>
+  </si>
+  <si>
     <t>Romania</t>
   </si>
   <si>
-    <t>Thailand</t>
-  </si>
-  <si>
     <t>Chile</t>
   </si>
   <si>
@@ -275,12 +275,12 @@
     <t>Lebanon</t>
   </si>
   <si>
+    <t>Philippines</t>
+  </si>
+  <si>
     <t>Viet Nam</t>
   </si>
   <si>
-    <t>Philippines</t>
-  </si>
-  <si>
     <t>Puerto Rico</t>
   </si>
   <si>
@@ -290,12 +290,12 @@
     <t>Armenia</t>
   </si>
   <si>
+    <t>Georgia</t>
+  </si>
+  <si>
     <t>Uruguay</t>
   </si>
   <si>
-    <t>Georgia</t>
-  </si>
-  <si>
     <t>Peru</t>
   </si>
   <si>
@@ -323,18 +323,18 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Tanzania</t>
+    <t>Ethiopia</t>
   </si>
   <si>
     <t>Nepal</t>
   </si>
   <si>
-    <t>Ethiopia</t>
-  </si>
-  <si>
     <t>Kazakhstan</t>
   </si>
   <si>
@@ -347,12 +347,12 @@
     <t>Macedonia</t>
   </si>
   <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Luxembourg</t>
-  </si>
-  <si>
     <t>Jamaica</t>
   </si>
   <si>
@@ -365,12 +365,12 @@
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
+    <t>Botswana</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
-    <t>Botswana</t>
-  </si>
-  <si>
     <t>Syrian Arab Republic</t>
   </si>
   <si>
@@ -422,51 +422,51 @@
     <t>Libya</t>
   </si>
   <si>
+    <t>Zambia</t>
+  </si>
+  <si>
     <t>Barbados</t>
   </si>
   <si>
-    <t>Zambia</t>
-  </si>
-  <si>
     <t>Mongolia</t>
   </si>
   <si>
     <t>Congo</t>
   </si>
   <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
     <t>Mauritius</t>
   </si>
   <si>
-    <t>Cambodia</t>
-  </si>
-  <si>
-    <t>Gabon</t>
-  </si>
-  <si>
     <t>Monaco</t>
   </si>
   <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
     <t>Mali</t>
   </si>
   <si>
     <t>Gambia</t>
   </si>
   <si>
-    <t>Papua New Guinea</t>
-  </si>
-  <si>
     <t>Guatemala</t>
   </si>
   <si>
     <t>Mozambique</t>
   </si>
   <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
     <t>New Caledonia</t>
   </si>
   <si>
-    <t>Brunei Darussalam</t>
-  </si>
-  <si>
     <t>Yemen</t>
   </si>
   <si>
@@ -488,24 +488,24 @@
     <t>Guadeloupe</t>
   </si>
   <si>
+    <t>Togo</t>
+  </si>
+  <si>
     <t>Kyrgyzstan</t>
   </si>
   <si>
-    <t>Togo</t>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Niger</t>
   </si>
   <si>
     <t>Liechtenstein</t>
   </si>
   <si>
-    <t>Niger</t>
-  </si>
-  <si>
     <t>Myanmar</t>
   </si>
   <si>
-    <t>Tajikistan</t>
-  </si>
-  <si>
     <t>Nicaragua</t>
   </si>
   <si>
@@ -518,12 +518,12 @@
     <t>French Polynesia</t>
   </si>
   <si>
+    <t>Honduras</t>
+  </si>
+  <si>
     <t>Dominican Republic</t>
   </si>
   <si>
-    <t>Honduras</t>
-  </si>
-  <si>
     <t>Guam</t>
   </si>
   <si>
@@ -542,21 +542,21 @@
     <t>Martinique</t>
   </si>
   <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
     <t>Central African Republic</t>
   </si>
   <si>
-    <t>Netherlands Antilles</t>
-  </si>
-  <si>
     <t>Guyana</t>
   </si>
   <si>
+    <t>Guinea</t>
+  </si>
+  <si>
     <t>Angola</t>
   </si>
   <si>
-    <t>Guinea</t>
-  </si>
-  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
@@ -575,21 +575,21 @@
     <t>Falkland Islands (Malvinas)</t>
   </si>
   <si>
-    <t>Swaziland</t>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
   </si>
   <si>
     <t>Lesotho</t>
   </si>
   <si>
-    <t>Faroe Islands</t>
-  </si>
-  <si>
     <t>Bhutan</t>
   </si>
   <si>
-    <t>Vanuatu</t>
-  </si>
-  <si>
     <t>Grenada</t>
   </si>
   <si>
@@ -611,67 +611,70 @@
     <t>Suriname</t>
   </si>
   <si>
+    <t>Burundi</t>
+  </si>
+  <si>
     <t>Virgin Islands (U.S.)</t>
   </si>
   <si>
-    <t>Burundi</t>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Samoa</t>
   </si>
   <si>
     <t>Palau</t>
   </si>
   <si>
-    <t>San Marino</t>
+    <t>Federated States of Micronesia</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
   </si>
   <si>
     <t>Solomon Islands</t>
   </si>
   <si>
-    <t>Samoa</t>
-  </si>
-  <si>
-    <t>Federated States of Micronesia</t>
-  </si>
-  <si>
-    <t>Equatorial Guinea</t>
+    <t>Bahamas</t>
   </si>
   <si>
     <t>Saint Kitts and Nevis</t>
   </si>
   <si>
-    <t>Bahamas</t>
-  </si>
-  <si>
     <t>North Korea</t>
   </si>
   <si>
+    <t>Tonga</t>
+  </si>
+  <si>
     <t>Turkmenistan</t>
   </si>
   <si>
-    <t>Tonga</t>
-  </si>
-  <si>
     <t>Cayman Islands</t>
   </si>
   <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
     <t>Liberia</t>
   </si>
   <si>
-    <t>Maldives</t>
-  </si>
-  <si>
-    <t>Marshall Islands</t>
-  </si>
-  <si>
-    <t>American Samoa</t>
-  </si>
-  <si>
     <t>Northern Mariana Islands</t>
   </si>
   <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
     <t>Dominica</t>
   </si>
   <si>
-    <t>Djibouti</t>
+    <t>Gibraltar</t>
   </si>
   <si>
     <t>Andorra</t>
@@ -680,7 +683,13 @@
     <t>Saint Lucia</t>
   </si>
   <si>
-    <t>Gibraltar</t>
+    <t>Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Vatican City State</t>
   </si>
   <si>
     <t>Mayotte</t>
@@ -689,40 +698,31 @@
     <t>Virgin Islands (British)</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t>Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t>Vatican City State</t>
+    <t>Montserrat</t>
   </si>
   <si>
     <t>Cape Verde</t>
   </si>
   <si>
-    <t>Montserrat</t>
-  </si>
-  <si>
     <t>Turks and Caicos Islands</t>
   </si>
   <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
     <t>Somalia</t>
-  </si>
-  <si>
-    <t>Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t>Comoros</t>
-  </si>
-  <si>
-    <t>Aruba</t>
-  </si>
-  <si>
-    <t>Timor-Leste</t>
-  </si>
-  <si>
-    <t>Tuvalu</t>
   </si>
   <si>
     <t>Nauru</t>
@@ -878,22 +878,22 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>468697</v>
+        <v>473558</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>429828</v>
+        <v>432422</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>21846046</v>
+        <v>24056454</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>9326162</v>
+        <v>9996348</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>46.61</v>
+        <v>50.8</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>2711</v>
+        <v>3051</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="3">
@@ -907,22 +907,22 @@
         <v>12</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>125464</v>
+        <v>127215</v>
       </c>
       <c r="E3" s="0" t="n">
-        <v>109222</v>
+        <v>109739</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>5451874</v>
+        <v>6022281</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1125491</v>
+        <v>1201229</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>43.45</v>
+        <v>47.34</v>
       </c>
       <c r="I3" s="0" t="n">
-        <v>1707</v>
+        <v>1928</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
@@ -936,22 +936,22 @@
         <v>14</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>117172</v>
+        <v>116981</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>116358</v>
+        <v>116301</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>1939117</v>
+        <v>2104164</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>988215</v>
+        <v>1063699</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>16.55</v>
+        <v>17.99</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1112</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
@@ -965,22 +965,22 @@
         <v>14</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>116781</v>
+        <v>116970</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>113830</v>
+        <v>114301</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>3170783</v>
+        <v>3440348</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>752819</v>
+        <v>785482</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>27.15</v>
+        <v>29.41</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>1171</v>
+        <v>1301</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
@@ -994,22 +994,22 @@
         <v>12</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>109633</v>
+        <v>110589</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>104099</v>
+        <v>105144</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>4013593</v>
+        <v>4366676</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>882292</v>
+        <v>925135</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>36.61</v>
+        <v>39.49</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>1498</v>
+        <v>1690</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
@@ -1023,22 +1023,22 @@
         <v>12</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>76882</v>
+        <v>77084</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>73061</v>
+        <v>73371</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>2764794</v>
+        <v>3018974</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>525777</v>
+        <v>550980</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>35.96</v>
+        <v>39.16</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1352</v>
+        <v>1514</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="8">
@@ -1052,22 +1052,22 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>62384</v>
+        <v>62725</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>57534</v>
+        <v>57786</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>2768332</v>
+        <v>3059867</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>432802</v>
+        <v>459193</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>44.38</v>
+        <v>48.78</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1381</v>
+        <v>1562</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="9">
@@ -1081,22 +1081,22 @@
         <v>12</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>58870</v>
+        <v>58906</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>55555</v>
+        <v>55727</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>2081986</v>
+        <v>2269052</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>426470</v>
+        <v>450598</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>35.37</v>
+        <v>38.52</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>1189</v>
+        <v>1333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="10">
@@ -1110,22 +1110,22 @@
         <v>12</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>43491</v>
+        <v>43534</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>40310</v>
+        <v>40401</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1439448</v>
+        <v>1572934</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>300088</v>
+        <v>314799</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>33.1</v>
+        <v>36.13</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>1073</v>
+        <v>1215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="11">
@@ -1139,22 +1139,22 @@
         <v>22</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>41059</v>
+        <v>41406</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>37372</v>
+        <v>37557</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>1744745</v>
+        <v>1934871</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>315170</v>
+        <v>335823</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>42.49</v>
+        <v>46.73</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>1193</v>
+        <v>1377</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="12">
@@ -1168,22 +1168,22 @@
         <v>24</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>38171</v>
+        <v>38259</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>37638</v>
+        <v>37693</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>550578</v>
+        <v>604077</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>143454</v>
+        <v>153172</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>14.42</v>
+        <v>15.79</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>675</v>
+        <v>753</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="13">
@@ -1197,22 +1197,22 @@
         <v>14</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>36094</v>
+        <v>36143</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>34142</v>
+        <v>34248</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>827862</v>
+        <v>916351</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>265797</v>
+        <v>294260</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>22.94</v>
+        <v>25.35</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>745</v>
+        <v>858</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="14">
@@ -1226,22 +1226,22 @@
         <v>12</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>33068</v>
+        <v>33298</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>30842</v>
+        <v>30969</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>1701799</v>
+        <v>1877515</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>220244</v>
+        <v>230577</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>51.46</v>
+        <v>56.39</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>1206</v>
+        <v>1373</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="15">
@@ -1255,22 +1255,22 @@
         <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>32717</v>
+        <v>32724</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>32234</v>
+        <v>32311</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>874921</v>
+        <v>951148</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>143663</v>
+        <v>149524</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>26.74</v>
+        <v>29.07</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>810</v>
+        <v>934</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="16">
@@ -1284,22 +1284,22 @@
         <v>29</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>24122</v>
+        <v>24162</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>23453</v>
+        <v>23533</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>620869</v>
+        <v>681858</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>191786</v>
+        <v>204295</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>25.74</v>
+        <v>28.22</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>690</v>
+        <v>789</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="17">
@@ -1313,22 +1313,22 @@
         <v>12</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>23962</v>
+        <v>24000</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>22498</v>
+        <v>22571</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>1304363</v>
+        <v>1433510</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>136006</v>
+        <v>141865</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>54.43</v>
+        <v>59.73</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>1142</v>
+        <v>1291</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="18">
@@ -1342,22 +1342,22 @@
         <v>12</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>23038</v>
+        <v>23090</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>21738</v>
+        <v>21816</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>1090265</v>
+        <v>1192961</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>138260</v>
+        <v>144380</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>47.32</v>
+        <v>51.67</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>1036</v>
+        <v>1159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="19">
@@ -1371,22 +1371,22 @@
         <v>24</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>23014</v>
+        <v>23021</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>22504</v>
+        <v>22550</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>429030</v>
+        <v>468425</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>90901</v>
+        <v>95088</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>18.64</v>
+        <v>20.35</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>660</v>
+        <v>738</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="20">
@@ -1400,22 +1400,22 @@
         <v>14</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>21808</v>
+        <v>21819</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>21312</v>
+        <v>21372</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>578430</v>
+        <v>634610</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>97012</v>
+        <v>99889</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>26.52</v>
+        <v>29.09</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>615</v>
+        <v>688</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="21">
@@ -1429,22 +1429,22 @@
         <v>35</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>18985</v>
+        <v>18958</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>18084</v>
+        <v>18099</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>440151</v>
+        <v>489047</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>90325</v>
+        <v>97139</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>23.18</v>
+        <v>25.8</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>535</v>
+        <v>601</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="22">
@@ -1458,22 +1458,22 @@
         <v>12</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>18126</v>
+        <v>18230</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>17074</v>
+        <v>17119</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>770002</v>
+        <v>844449</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>86305</v>
+        <v>89672</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>42.48</v>
+        <v>46.32</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>942</v>
+        <v>1067</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="23">
@@ -1487,22 +1487,22 @@
         <v>35</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>14892</v>
+        <v>15004</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>13973</v>
+        <v>14036</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>626533</v>
+        <v>690791</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>71289</v>
+        <v>75054</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>42.07</v>
+        <v>46.04</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>821</v>
+        <v>914</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="24">
@@ -1516,22 +1516,22 @@
         <v>12</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>12909</v>
+        <v>12995</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>12093</v>
+        <v>12171</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>514975</v>
+        <v>565487</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>54768</v>
+        <v>57114</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>39.89</v>
+        <v>43.52</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>783</v>
+        <v>877</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="25">
@@ -1545,22 +1545,22 @@
         <v>12</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>12316</v>
+        <v>12356</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>11821</v>
+        <v>11873</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>487284</v>
+        <v>535251</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>61886</v>
+        <v>64545</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>39.57</v>
+        <v>43.32</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>756</v>
+        <v>847</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="26">
@@ -1574,22 +1574,22 @@
         <v>12</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>12275</v>
+        <v>12330</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>11582</v>
+        <v>11624</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>653012</v>
+        <v>716686</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>72649</v>
+        <v>75970</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>53.2</v>
+        <v>58.13</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>900</v>
+        <v>1014</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="27">
@@ -1603,22 +1603,22 @@
         <v>14</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>11538</v>
+        <v>11578</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>10920</v>
+        <v>10975</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>445488</v>
+        <v>493121</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>48265</v>
+        <v>50205</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>38.61</v>
+        <v>42.59</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>687</v>
+        <v>800</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="28">
@@ -1632,22 +1632,22 @@
         <v>12</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>10807</v>
+        <v>10814</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>10218</v>
+        <v>10241</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>326550</v>
+        <v>359571</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>42965</v>
+        <v>45274</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>30.22</v>
+        <v>33.25</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>610</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="29">
@@ -1661,22 +1661,22 @@
         <v>14</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>10049</v>
+        <v>10115</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>9598</v>
+        <v>9636</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>343405</v>
+        <v>379313</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>31648</v>
+        <v>32868</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>34.17</v>
+        <v>37.5</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>697</v>
+        <v>806</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="30">
@@ -1690,22 +1690,22 @@
         <v>29</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>9840</v>
+        <v>9950</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>9568</v>
+        <v>9691</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>250070</v>
+        <v>275580</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>45358</v>
+        <v>48542</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>25.41</v>
+        <v>27.7</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>536</v>
+        <v>598</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="31">
@@ -1719,22 +1719,22 @@
         <v>24</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>9539</v>
+        <v>9553</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>9343</v>
+        <v>9371</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>206972</v>
+        <v>226394</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>38868</v>
+        <v>40371</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>21.7</v>
+        <v>23.7</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>554</v>
+        <v>625</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="32">
@@ -1748,22 +1748,22 @@
         <v>12</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>9192</v>
+        <v>9196</v>
       </c>
       <c r="E32" s="0" t="n">
-        <v>8510</v>
+        <v>8527</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>405169</v>
+        <v>448514</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>52042</v>
+        <v>54849</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>44.08</v>
+        <v>48.77</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>747</v>
+        <v>843</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="33">
@@ -1777,22 +1777,22 @@
         <v>22</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>7887</v>
+        <v>7910</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>7201</v>
+        <v>7213</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>321458</v>
+        <v>361900</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>38028</v>
+        <v>40307</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>40.76</v>
+        <v>45.75</v>
       </c>
       <c r="I33" s="0" t="n">
-        <v>633</v>
+        <v>716</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="34">
@@ -1806,22 +1806,22 @@
         <v>49</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>7488</v>
+        <v>7590</v>
       </c>
       <c r="E34" s="0" t="n">
-        <v>6970</v>
+        <v>7050</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>230092</v>
+        <v>256741</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>43143</v>
+        <v>46818</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>30.73</v>
+        <v>33.83</v>
       </c>
       <c r="I34" s="0" t="n">
-        <v>567</v>
+        <v>652</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="35">
@@ -1835,22 +1835,22 @@
         <v>12</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>7431</v>
+        <v>7446</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>7177</v>
+        <v>7189</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>257624</v>
+        <v>286424</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>39035</v>
+        <v>41073</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>34.67</v>
+        <v>38.47</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>599</v>
+        <v>685</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="36">
@@ -1864,22 +1864,22 @@
         <v>24</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>7260</v>
+        <v>7287</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>7171</v>
+        <v>7200</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>77686</v>
+        <v>84969</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>18412</v>
+        <v>19584</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>10.7</v>
+        <v>11.66</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="37">
@@ -1893,22 +1893,22 @@
         <v>24</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>7117</v>
+        <v>7130</v>
       </c>
       <c r="E37" s="0" t="n">
-        <v>6843</v>
+        <v>6864</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>206749</v>
+        <v>226683</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>26164</v>
+        <v>27361</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>29.05</v>
+        <v>31.79</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>540</v>
+        <v>599</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="38">
@@ -1922,22 +1922,22 @@
         <v>29</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>6628</v>
+        <v>6635</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>6409</v>
+        <v>6433</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>202513</v>
+        <v>223447</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>37044</v>
+        <v>39593</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>30.55</v>
+        <v>33.68</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>510</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="39">
@@ -1951,22 +1951,22 @@
         <v>12</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>6070</v>
+        <v>6124</v>
       </c>
       <c r="E39" s="0" t="n">
-        <v>5541</v>
+        <v>5574</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>221925</v>
+        <v>246299</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>20359</v>
+        <v>21326</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>36.56</v>
+        <v>40.22</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>628</v>
+        <v>711</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="40">
@@ -1980,22 +1980,22 @@
         <v>35</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>6042</v>
+        <v>6044</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>5918</v>
+        <v>5929</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>128073</v>
+        <v>140190</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>43060</v>
+        <v>45596</v>
       </c>
       <c r="H40" s="0" t="n">
-        <v>21.2</v>
+        <v>23.19</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>416</v>
+        <v>490</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="41">
@@ -2009,22 +2009,22 @@
         <v>57</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>4581</v>
+        <v>4584</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>4506</v>
+        <v>4522</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>93909</v>
+        <v>103931</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>16778</v>
+        <v>18146</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>20.5</v>
+        <v>22.67</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>349</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="42">
@@ -2035,25 +2035,25 @@
         <v>58</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>4015</v>
+        <v>4053</v>
       </c>
       <c r="E42" s="0" t="n">
-        <v>3969</v>
+        <v>3894</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>64846</v>
+        <v>147797</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>11062</v>
+        <v>17479</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>16.15</v>
+        <v>36.47</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>364</v>
+        <v>452</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="43">
@@ -2064,25 +2064,25 @@
         <v>59</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>4004</v>
+        <v>4020</v>
       </c>
       <c r="E43" s="0" t="n">
-        <v>3841</v>
+        <v>3977</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>132124</v>
+        <v>70327</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>16182</v>
+        <v>11487</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>33</v>
+        <v>17.49</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>396</v>
+        <v>419</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="44">
@@ -2096,22 +2096,22 @@
         <v>29</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>3613</v>
+        <v>3612</v>
       </c>
       <c r="E44" s="0" t="n">
-        <v>3503</v>
+        <v>3511</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>127288</v>
+        <v>140463</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>20149</v>
+        <v>21447</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>35.23</v>
+        <v>38.89</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>451</v>
+        <v>515</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="45">
@@ -2125,22 +2125,22 @@
         <v>24</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>3331</v>
+        <v>3329</v>
       </c>
       <c r="E45" s="0" t="n">
-        <v>3270</v>
+        <v>3273</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>64823</v>
+        <v>70541</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>9612</v>
+        <v>9963</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>19.46</v>
+        <v>21.19</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>331</v>
+        <v>355</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="46">
@@ -2154,22 +2154,22 @@
         <v>24</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>3305</v>
+        <v>3319</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>3237</v>
+        <v>3247</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>55660</v>
+        <v>63299</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>9124</v>
+        <v>9640</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>16.84</v>
+        <v>19.07</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>337</v>
+        <v>380</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="47">
@@ -2183,22 +2183,22 @@
         <v>14</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>2911</v>
+        <v>2922</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>2795</v>
+        <v>2799</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>73543</v>
+        <v>83164</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>12592</v>
+        <v>13492</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>25.26</v>
+        <v>28.46</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>415</v>
+        <v>504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="48">
@@ -2212,22 +2212,22 @@
         <v>24</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>2796</v>
+        <v>2802</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>2709</v>
+        <v>2717</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>60343</v>
+        <v>67705</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>9280</v>
+        <v>9623</v>
       </c>
       <c r="H48" s="0" t="n">
-        <v>21.58</v>
+        <v>24.16</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>361</v>
+        <v>409</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="49">
@@ -2241,22 +2241,22 @@
         <v>24</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>2706</v>
+        <v>2711</v>
       </c>
       <c r="E49" s="0" t="n">
-        <v>2652</v>
+        <v>2661</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>50484</v>
+        <v>56971</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>6513</v>
+        <v>6793</v>
       </c>
       <c r="H49" s="0" t="n">
-        <v>18.66</v>
+        <v>21.01</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>305</v>
+        <v>347</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="50">
@@ -2270,22 +2270,22 @@
         <v>35</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>2310</v>
+        <v>2316</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>46553</v>
+        <v>51936</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>6335</v>
+        <v>6984</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>19.16</v>
+        <v>21.38</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>478</v>
+        <v>568</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="51">
@@ -2299,22 +2299,22 @@
         <v>14</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>2033</v>
+        <v>2035</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>40288</v>
+        <v>45125</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>9557</v>
+        <v>10362</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>18.6</v>
+        <v>20.85</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>353</v>
+        <v>428</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="52">
@@ -2328,22 +2328,22 @@
         <v>49</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>1906</v>
+        <v>1921</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>1870</v>
+        <v>1882</v>
       </c>
       <c r="F52" s="0" t="n">
-        <v>33302</v>
+        <v>37365</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>7008</v>
+        <v>7742</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>17.47</v>
+        <v>19.45</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>260</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="53">
@@ -2357,22 +2357,22 @@
         <v>49</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>1723</v>
+        <v>1727</v>
       </c>
       <c r="F53" s="0" t="n">
-        <v>27049</v>
+        <v>32053</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>5744</v>
+        <v>6093</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>15.33</v>
+        <v>18.16</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>235</v>
+        <v>271</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="54">
@@ -2386,22 +2386,22 @@
         <v>24</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="E54" s="0" t="n">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="F54" s="0" t="n">
-        <v>20368</v>
+        <v>22000</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>3219</v>
+        <v>3318</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>12.1</v>
+        <v>13.07</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="55">
@@ -2415,22 +2415,22 @@
         <v>29</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>1638</v>
+        <v>1642</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>1580</v>
+        <v>1586</v>
       </c>
       <c r="F55" s="0" t="n">
-        <v>41492</v>
+        <v>46826</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>3625</v>
+        <v>3779</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>25.33</v>
+        <v>28.52</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="56">
@@ -2444,22 +2444,22 @@
         <v>24</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>1612</v>
+        <v>1624</v>
       </c>
       <c r="E56" s="0" t="n">
-        <v>1582</v>
+        <v>1593</v>
       </c>
       <c r="F56" s="0" t="n">
-        <v>27563</v>
+        <v>30189</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>4466</v>
+        <v>4643</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>17.1</v>
+        <v>18.59</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>265</v>
+        <v>298</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="57">
@@ -2473,22 +2473,22 @@
         <v>24</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>1468</v>
+        <v>1474</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="F57" s="0" t="n">
-        <v>26501</v>
+        <v>31690</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>4557</v>
+        <v>4796</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>18.05</v>
+        <v>21.5</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>307</v>
+        <v>350</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="58">
@@ -2502,22 +2502,22 @@
         <v>49</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="E58" s="0" t="n">
-        <v>1425</v>
+        <v>1427</v>
       </c>
       <c r="F58" s="0" t="n">
-        <v>28346</v>
+        <v>31570</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>5131</v>
+        <v>5808</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>19.39</v>
+        <v>21.65</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="59">
@@ -2531,22 +2531,22 @@
         <v>29</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="E59" s="0" t="n">
-        <v>1343</v>
+        <v>1351</v>
       </c>
       <c r="F59" s="0" t="n">
-        <v>37218</v>
+        <v>41244</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>4890</v>
+        <v>5249</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>26.51</v>
+        <v>29.36</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>356</v>
+        <v>405</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="60">
@@ -2560,22 +2560,22 @@
         <v>29</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>1219</v>
+        <v>1222</v>
       </c>
       <c r="E60" s="0" t="n">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="F60" s="0" t="n">
-        <v>20243</v>
+        <v>21900</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>3488</v>
+        <v>3564</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>16.61</v>
+        <v>17.92</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>200</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="61">
@@ -2589,22 +2589,22 @@
         <v>49</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="E61" s="0" t="n">
-        <v>1190</v>
+        <v>1194</v>
       </c>
       <c r="F61" s="0" t="n">
-        <v>20479</v>
+        <v>22556</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>3651</v>
+        <v>4025</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>16.97</v>
+        <v>18.64</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="62">
@@ -2618,22 +2618,22 @@
         <v>14</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>1020</v>
+        <v>1039</v>
       </c>
       <c r="E62" s="0" t="n">
-        <v>961</v>
+        <v>977</v>
       </c>
       <c r="F62" s="0" t="n">
-        <v>28700</v>
+        <v>31987</v>
       </c>
       <c r="G62" s="0" t="n">
-        <v>3344</v>
+        <v>3920</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>28.14</v>
+        <v>30.79</v>
       </c>
       <c r="I62" s="0" t="n">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="63">
@@ -2647,22 +2647,22 @@
         <v>35</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>980</v>
+        <v>986</v>
       </c>
       <c r="E63" s="0" t="n">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="F63" s="0" t="n">
-        <v>25196</v>
+        <v>28109</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>2088</v>
+        <v>2264</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>25.71</v>
+        <v>28.51</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>219</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="64">
@@ -2676,22 +2676,22 @@
         <v>35</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>973</v>
+        <v>977</v>
       </c>
       <c r="E64" s="0" t="n">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="F64" s="0" t="n">
-        <v>21763</v>
+        <v>24445</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>1699</v>
+        <v>1836</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>22.37</v>
+        <v>25.02</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>268</v>
+        <v>329</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="65">
@@ -2705,22 +2705,22 @@
         <v>24</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="E65" s="0" t="n">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="F65" s="0" t="n">
-        <v>37361</v>
+        <v>41495</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>4857</v>
+        <v>5031</v>
       </c>
       <c r="H65" s="0" t="n">
-        <v>38.76</v>
+        <v>42.82</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>346</v>
+        <v>383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="66">
@@ -2734,22 +2734,22 @@
         <v>49</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>941</v>
+        <v>947</v>
       </c>
       <c r="E66" s="0" t="n">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="F66" s="0" t="n">
-        <v>36616</v>
+        <v>40412</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>4952</v>
+        <v>5245</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>38.91</v>
+        <v>42.67</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="67">
@@ -2763,22 +2763,22 @@
         <v>14</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="E67" s="0" t="n">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="F67" s="0" t="n">
-        <v>25284</v>
+        <v>28117</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>3208</v>
+        <v>3510</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>28.63</v>
+        <v>32.02</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>252</v>
+        <v>304</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="68">
@@ -2792,22 +2792,22 @@
         <v>35</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E68" s="0" t="n">
         <v>783</v>
       </c>
       <c r="F68" s="0" t="n">
-        <v>22211</v>
+        <v>24741</v>
       </c>
       <c r="G68" s="0" t="n">
-        <v>1498</v>
+        <v>1569</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>27.73</v>
+        <v>30.85</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>195</v>
+        <v>220</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="69">
@@ -2821,22 +2821,22 @@
         <v>35</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="E69" s="0" t="n">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="F69" s="0" t="n">
-        <v>20248</v>
+        <v>22824</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>1827</v>
+        <v>1996</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>26.36</v>
+        <v>29.56</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>264</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="70">
@@ -2850,22 +2850,22 @@
         <v>14</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="E70" s="0" t="n">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="F70" s="0" t="n">
-        <v>23833</v>
+        <v>32645</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>2928</v>
+        <v>2375</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>33.19</v>
+        <v>44.84</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>269</v>
+        <v>325</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="71">
@@ -2882,19 +2882,19 @@
         <v>718</v>
       </c>
       <c r="E71" s="0" t="n">
-        <v>679</v>
+        <v>698</v>
       </c>
       <c r="F71" s="0" t="n">
-        <v>28397</v>
+        <v>26058</v>
       </c>
       <c r="G71" s="0" t="n">
-        <v>2178</v>
+        <v>3213</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>39.55</v>
+        <v>36.29</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="72">
@@ -2908,22 +2908,22 @@
         <v>29</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="E72" s="0" t="n">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="F72" s="0" t="n">
-        <v>21863</v>
+        <v>23619</v>
       </c>
       <c r="G72" s="0" t="n">
-        <v>1404</v>
+        <v>1439</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>35.04</v>
+        <v>37.61</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>253</v>
+        <v>281</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="73">
@@ -2937,22 +2937,22 @@
         <v>12</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>575</v>
+        <v>578</v>
       </c>
       <c r="E73" s="0" t="n">
         <v>532</v>
       </c>
       <c r="F73" s="0" t="n">
-        <v>38242</v>
+        <v>44313</v>
       </c>
       <c r="G73" s="0" t="n">
-        <v>2633</v>
+        <v>2817</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>66.51</v>
+        <v>76.67</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>370</v>
+        <v>393</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="74">
@@ -2966,22 +2966,22 @@
         <v>24</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="E74" s="0" t="n">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="F74" s="0" t="n">
-        <v>10125</v>
+        <v>10838</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>1959</v>
+        <v>2073</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>18.51</v>
+        <v>19.71</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="75">
@@ -2992,25 +2992,25 @@
         <v>91</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="E75" s="0" t="n">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="F75" s="0" t="n">
-        <v>18844</v>
+        <v>10835</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>2430</v>
+        <v>1230</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>35.16</v>
+        <v>19.84</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>222</v>
+        <v>248</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="76">
@@ -3021,25 +3021,25 @@
         <v>92</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E76" s="0" t="n">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F76" s="0" t="n">
-        <v>9877</v>
+        <v>20708</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>1172</v>
+        <v>2625</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>18.46</v>
+        <v>38.63</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>219</v>
+        <v>243</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="77">
@@ -3056,19 +3056,19 @@
         <v>527</v>
       </c>
       <c r="E77" s="0" t="n">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F77" s="0" t="n">
-        <v>20686</v>
+        <v>22965</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>2215</v>
+        <v>2387</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>39.25</v>
+        <v>43.58</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>288</v>
+        <v>315</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="78">
@@ -3082,22 +3082,22 @@
         <v>12</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="E78" s="0" t="n">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="F78" s="0" t="n">
-        <v>16544</v>
+        <v>20854</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>1339</v>
+        <v>1467</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>34.18</v>
+        <v>42.21</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>254</v>
+        <v>303</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="79">
@@ -3111,22 +3111,22 @@
         <v>14</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="E79" s="0" t="n">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="F79" s="0" t="n">
-        <v>5493</v>
+        <v>6119</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>902</v>
+        <v>1033</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>11.37</v>
+        <v>12.54</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>106</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="80">
@@ -3140,22 +3140,22 @@
         <v>14</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E80" s="0" t="n">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F80" s="0" t="n">
-        <v>15152</v>
+        <v>16829</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>1001</v>
+        <v>1065</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>31.77</v>
+        <v>34.99</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>225</v>
+        <v>251</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="81">
@@ -3169,22 +3169,22 @@
         <v>24</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="E81" s="0" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F81" s="0" t="n">
-        <v>12338</v>
+        <v>13748</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>1162</v>
+        <v>1226</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>26.25</v>
+        <v>29.07</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>202</v>
+        <v>225</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="82">
@@ -3201,19 +3201,19 @@
         <v>460</v>
       </c>
       <c r="E82" s="0" t="n">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F82" s="0" t="n">
-        <v>9326</v>
+        <v>10421</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>847</v>
+        <v>887</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>20.27</v>
+        <v>22.65</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>176</v>
+        <v>217</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="83">
@@ -3233,16 +3233,16 @@
         <v>440</v>
       </c>
       <c r="F83" s="0" t="n">
-        <v>2250</v>
+        <v>2445</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>652</v>
+        <v>685</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>5.02</v>
+        <v>5.46</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="84">
@@ -3262,16 +3262,16 @@
         <v>391</v>
       </c>
       <c r="F84" s="0" t="n">
-        <v>16171</v>
+        <v>17870</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>2193</v>
+        <v>2373</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>38.59</v>
+        <v>42.65</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>209</v>
+        <v>236</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="85">
@@ -3285,22 +3285,22 @@
         <v>29</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E85" s="0" t="n">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F85" s="0" t="n">
-        <v>16297</v>
+        <v>17864</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>1248</v>
+        <v>1321</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>39.27</v>
+        <v>43.15</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="86">
@@ -3317,19 +3317,19 @@
         <v>410</v>
       </c>
       <c r="E86" s="0" t="n">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F86" s="0" t="n">
-        <v>13214</v>
+        <v>16600</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>1995</v>
+        <v>2331</v>
       </c>
       <c r="H86" s="0" t="n">
-        <v>32.23</v>
+        <v>40.49</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>167</v>
+        <v>228</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="87">
@@ -3346,19 +3346,19 @@
         <v>409</v>
       </c>
       <c r="E87" s="0" t="n">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="F87" s="0" t="n">
-        <v>15174</v>
+        <v>14620</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>2185</v>
+        <v>2189</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>37.1</v>
+        <v>35.75</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>205</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="88">
@@ -3369,25 +3369,25 @@
         <v>104</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E88" s="0" t="n">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="F88" s="0" t="n">
-        <v>8996</v>
+        <v>12209</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>1121</v>
+        <v>3104</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>23.8</v>
+        <v>32.21</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>175</v>
+        <v>226</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="89">
@@ -3398,25 +3398,25 @@
         <v>105</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E89" s="0" t="n">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="F89" s="0" t="n">
-        <v>10711</v>
+        <v>10108</v>
       </c>
       <c r="G89" s="0" t="n">
-        <v>2609</v>
+        <v>1236</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>28.41</v>
+        <v>26.74</v>
       </c>
       <c r="I89" s="0" t="n">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="90">
@@ -3430,22 +3430,22 @@
         <v>14</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="E90" s="0" t="n">
         <v>338</v>
       </c>
       <c r="F90" s="0" t="n">
-        <v>4041</v>
+        <v>4460</v>
       </c>
       <c r="G90" s="0" t="n">
-        <v>602</v>
+        <v>661</v>
       </c>
       <c r="H90" s="0" t="n">
-        <v>11.82</v>
+        <v>13</v>
       </c>
       <c r="I90" s="0" t="n">
-        <v>138</v>
+        <v>163</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="91">
@@ -3459,22 +3459,22 @@
         <v>49</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E91" s="0" t="n">
         <v>321</v>
       </c>
       <c r="F91" s="0" t="n">
-        <v>11911</v>
+        <v>13291</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>1477</v>
+        <v>1671</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>35.88</v>
+        <v>40.15</v>
       </c>
       <c r="I91" s="0" t="n">
-        <v>191</v>
+        <v>222</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="92">
@@ -3488,22 +3488,22 @@
         <v>49</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E92" s="0" t="n">
         <v>280</v>
       </c>
       <c r="F92" s="0" t="n">
-        <v>7233</v>
+        <v>7427</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>723</v>
+        <v>792</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>24.27</v>
+        <v>25.01</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>146</v>
+        <v>159</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="93">
@@ -3523,16 +3523,16 @@
         <v>273</v>
       </c>
       <c r="F93" s="0" t="n">
-        <v>5399</v>
+        <v>5787</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>19.15</v>
+        <v>20.52</v>
       </c>
       <c r="I93" s="0" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="94">
@@ -3543,25 +3543,25 @@
         <v>110</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="E94" s="0" t="n">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="F94" s="0" t="n">
-        <v>7862</v>
+        <v>9266</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>660</v>
+        <v>537</v>
       </c>
       <c r="H94" s="0" t="n">
-        <v>28.49</v>
+        <v>32.98</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>164</v>
+        <v>274</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="95">
@@ -3572,25 +3572,25 @@
         <v>111</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E95" s="0" t="n">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>8432</v>
+        <v>8665</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>522</v>
+        <v>720</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>30.66</v>
+        <v>31.62</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>243</v>
+        <v>187</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="96">
@@ -3607,19 +3607,19 @@
         <v>256</v>
       </c>
       <c r="E96" s="0" t="n">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>4496</v>
+        <v>5029</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>609</v>
+        <v>640</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>17.56</v>
+        <v>19.64</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="97">
@@ -3633,22 +3633,22 @@
         <v>24</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E97" s="0" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>4154</v>
+        <v>4404</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>674</v>
+        <v>687</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>17.02</v>
+        <v>18.2</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>135</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="98">
@@ -3662,22 +3662,22 @@
         <v>29</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E98" s="0" t="n">
         <v>218</v>
       </c>
       <c r="F98" s="0" t="n">
-        <v>4444</v>
+        <v>4881</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>18.75</v>
+        <v>20.68</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="99">
@@ -3697,16 +3697,16 @@
         <v>229</v>
       </c>
       <c r="F99" s="0" t="n">
-        <v>2744</v>
+        <v>3015</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>11.83</v>
+        <v>13</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="100">
@@ -3717,25 +3717,25 @@
         <v>116</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E100" s="0" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F100" s="0" t="n">
-        <v>11389</v>
+        <v>5070</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>1219</v>
+        <v>549</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>52</v>
+        <v>22.94</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>197</v>
+        <v>144</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="101">
@@ -3746,25 +3746,25 @@
         <v>117</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="E101" s="0" t="n">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F101" s="0" t="n">
-        <v>4493</v>
+        <v>12589</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>473</v>
+        <v>1368</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>20.9</v>
+        <v>57.48</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>127</v>
+        <v>223</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="102">
@@ -3778,22 +3778,22 @@
         <v>35</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E102" s="0" t="n">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F102" s="0" t="n">
-        <v>5872</v>
+        <v>6627</v>
       </c>
       <c r="G102" s="0" t="n">
-        <v>559</v>
+        <v>571</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>27.44</v>
+        <v>30.82</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="103">
@@ -3813,16 +3813,16 @@
         <v>198</v>
       </c>
       <c r="F103" s="0" t="n">
-        <v>4657</v>
+        <v>5038</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>22.39</v>
+        <v>24.22</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>238</v>
+        <v>295</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="104">
@@ -3836,22 +3836,22 @@
         <v>35</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E104" s="0" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F104" s="0" t="n">
-        <v>2581</v>
+        <v>2966</v>
       </c>
       <c r="G104" s="0" t="n">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="H104" s="0" t="n">
-        <v>12.65</v>
+        <v>14.47</v>
       </c>
       <c r="I104" s="0" t="n">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="105">
@@ -3865,22 +3865,22 @@
         <v>49</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E105" s="0" t="n">
         <v>189</v>
       </c>
       <c r="F105" s="0" t="n">
-        <v>4647</v>
+        <v>5014</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="H105" s="0" t="n">
-        <v>22.89</v>
+        <v>24.82</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>134</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="106">
@@ -3894,22 +3894,22 @@
         <v>29</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E106" s="0" t="n">
         <v>188</v>
       </c>
       <c r="F106" s="0" t="n">
-        <v>13962</v>
+        <v>15336</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>1355</v>
+        <v>1422</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>69.12</v>
+        <v>77.07</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>242</v>
+        <v>260</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="107">
@@ -3923,22 +3923,22 @@
         <v>49</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E107" s="0" t="n">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F107" s="0" t="n">
-        <v>6412</v>
+        <v>6940</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>850</v>
+        <v>887</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>36.43</v>
+        <v>39.21</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>166</v>
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="108">
@@ -3952,22 +3952,22 @@
         <v>49</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E108" s="0" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F108" s="0" t="n">
-        <v>3937</v>
+        <v>4450</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>22.76</v>
+        <v>25.43</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="109">
@@ -3981,22 +3981,22 @@
         <v>49</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E109" s="0" t="n">
         <v>166</v>
       </c>
       <c r="F109" s="0" t="n">
-        <v>4674</v>
+        <v>5197</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>570</v>
+        <v>640</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>27.33</v>
+        <v>30.57</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="110">
@@ -4016,16 +4016,16 @@
         <v>149</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>2995</v>
+        <v>3316</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>18.96</v>
+        <v>20.99</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>131</v>
+        <v>147</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="111">
@@ -4039,22 +4039,22 @@
         <v>14</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E111" s="0" t="n">
         <v>148</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>2985</v>
+        <v>3291</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>20.03</v>
+        <v>21.94</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>178</v>
+        <v>224</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="112">
@@ -4074,16 +4074,16 @@
         <v>133</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>8030</v>
+        <v>8826</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>513</v>
+        <v>533</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>57.77</v>
+        <v>63.5</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>151</v>
+        <v>169</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="113">
@@ -4097,22 +4097,22 @@
         <v>35</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E113" s="0" t="n">
         <v>124</v>
       </c>
       <c r="F113" s="0" t="n">
-        <v>2008</v>
+        <v>2233</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>15.1</v>
+        <v>17.05</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>155</v>
+        <v>199</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="114">
@@ -4132,16 +4132,16 @@
         <v>125</v>
       </c>
       <c r="F114" s="0" t="n">
-        <v>3620</v>
+        <v>4002</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>512</v>
+        <v>549</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>28.28</v>
+        <v>31.27</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="115">
@@ -4161,16 +4161,16 @@
         <v>108</v>
       </c>
       <c r="F115" s="0" t="n">
-        <v>2202</v>
+        <v>2427</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>18.98</v>
+        <v>20.92</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="116">
@@ -4190,16 +4190,16 @@
         <v>106</v>
       </c>
       <c r="F116" s="0" t="n">
-        <v>1681</v>
+        <v>1845</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>14.88</v>
+        <v>16.33</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>109</v>
+        <v>127</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="117">
@@ -4213,22 +4213,22 @@
         <v>12</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E117" s="0" t="n">
         <v>99</v>
       </c>
       <c r="F117" s="0" t="n">
-        <v>2036</v>
+        <v>2258</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>18.51</v>
+        <v>20.34</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="118">
@@ -4242,22 +4242,22 @@
         <v>49</v>
       </c>
       <c r="D118" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="E118" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="E118" s="0" t="n">
-        <v>108</v>
-      </c>
       <c r="F118" s="0" t="n">
-        <v>1287</v>
+        <v>1434</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>11.81</v>
+        <v>13.04</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="119">
@@ -4268,25 +4268,25 @@
         <v>135</v>
       </c>
       <c r="C119" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E119" s="0" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="F119" s="0" t="n">
-        <v>3707</v>
+        <v>4417</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>170</v>
+        <v>441</v>
       </c>
       <c r="H119" s="0" t="n">
-        <v>34.97</v>
+        <v>41.28</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>102</v>
+        <v>161</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="120">
@@ -4297,25 +4297,25 @@
         <v>136</v>
       </c>
       <c r="C120" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E120" s="0" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F120" s="0" t="n">
-        <v>4075</v>
+        <v>4061</v>
       </c>
       <c r="G120" s="0" t="n">
-        <v>413</v>
+        <v>173</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>39.56</v>
+        <v>38.31</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>151</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="121">
@@ -4335,16 +4335,16 @@
         <v>93</v>
       </c>
       <c r="F121" s="0" t="n">
-        <v>4132</v>
+        <v>4544</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>458</v>
+        <v>495</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>42.16</v>
+        <v>46.37</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>117</v>
+        <v>136</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="122">
@@ -4364,16 +4364,16 @@
         <v>91</v>
       </c>
       <c r="F122" s="0" t="n">
-        <v>2799</v>
+        <v>3043</v>
       </c>
       <c r="G122" s="0" t="n">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="H122" s="0" t="n">
-        <v>29.46</v>
+        <v>32.03</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="123">
@@ -4384,25 +4384,25 @@
         <v>139</v>
       </c>
       <c r="C123" s="0" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E123" s="0" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F123" s="0" t="n">
-        <v>2301</v>
+        <v>2674</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>156</v>
+        <v>335</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>25.01</v>
+        <v>29.38</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>104</v>
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="124">
@@ -4413,25 +4413,25 @@
         <v>140</v>
       </c>
       <c r="C124" s="0" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D124" s="0" t="n">
         <v>91</v>
       </c>
       <c r="E124" s="0" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F124" s="0" t="n">
-        <v>2464</v>
+        <v>3773</v>
       </c>
       <c r="G124" s="0" t="n">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="H124" s="0" t="n">
-        <v>27.08</v>
+        <v>41.46</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="125">
@@ -4448,19 +4448,19 @@
         <v>91</v>
       </c>
       <c r="E125" s="0" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F125" s="0" t="n">
-        <v>3473</v>
+        <v>2609</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>334</v>
+        <v>181</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>38.16</v>
+        <v>28.67</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>120</v>
+        <v>133</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="126">
@@ -4480,16 +4480,16 @@
         <v>80</v>
       </c>
       <c r="F126" s="0" t="n">
-        <v>4306</v>
+        <v>4744</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>47.84</v>
+        <v>52.71</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>126</v>
+        <v>145</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="127">
@@ -4500,22 +4500,22 @@
         <v>143</v>
       </c>
       <c r="C127" s="0" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E127" s="0" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F127" s="0" t="n">
-        <v>3166</v>
+        <v>2167</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>306</v>
+        <v>179</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>35.57</v>
+        <v>24.08</v>
       </c>
       <c r="I127" s="0" t="n">
         <v>124</v>
@@ -4532,22 +4532,22 @@
         <v>49</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E128" s="0" t="n">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F128" s="0" t="n">
-        <v>4470</v>
+        <v>3532</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>50.22</v>
+        <v>40.14</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="129">
@@ -4558,25 +4558,25 @@
         <v>145</v>
       </c>
       <c r="C129" s="0" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E129" s="0" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F129" s="0" t="n">
-        <v>1926</v>
+        <v>4833</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>164</v>
+        <v>370</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>21.64</v>
+        <v>55.55</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>112</v>
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="130">
@@ -4590,22 +4590,22 @@
         <v>29</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E130" s="0" t="n">
         <v>79</v>
       </c>
       <c r="F130" s="0" t="n">
-        <v>2858</v>
+        <v>3144</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>35.28</v>
+        <v>38.34</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>110</v>
+        <v>123</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="131">
@@ -4619,22 +4619,22 @@
         <v>49</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E131" s="0" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F131" s="0" t="n">
-        <v>2585</v>
+        <v>2847</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="H131" s="0" t="n">
-        <v>33.14</v>
+        <v>35.59</v>
       </c>
       <c r="I131" s="0" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="132">
@@ -4645,25 +4645,25 @@
         <v>148</v>
       </c>
       <c r="C132" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E132" s="0" t="n">
         <v>69</v>
       </c>
       <c r="F132" s="0" t="n">
-        <v>9204</v>
+        <v>1617</v>
       </c>
       <c r="G132" s="0" t="n">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="H132" s="0" t="n">
-        <v>121.11</v>
+        <v>21.56</v>
       </c>
       <c r="I132" s="0" t="n">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="133">
@@ -4674,7 +4674,7 @@
         <v>149</v>
       </c>
       <c r="C133" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D133" s="0" t="n">
         <v>75</v>
@@ -4683,16 +4683,16 @@
         <v>69</v>
       </c>
       <c r="F133" s="0" t="n">
-        <v>1432</v>
+        <v>11125</v>
       </c>
       <c r="G133" s="0" t="n">
-        <v>90</v>
+        <v>237</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>19.09</v>
+        <v>148.33</v>
       </c>
       <c r="I133" s="0" t="n">
-        <v>105</v>
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="134">
@@ -4706,22 +4706,22 @@
         <v>35</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E134" s="0" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F134" s="0" t="n">
-        <v>1241</v>
+        <v>1392</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>17</v>
+        <v>18.81</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="135">
@@ -4741,16 +4741,16 @@
         <v>66</v>
       </c>
       <c r="F135" s="0" t="n">
-        <v>3244</v>
+        <v>3629</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>45.06</v>
+        <v>50.4</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="136">
@@ -4770,16 +4770,16 @@
         <v>69</v>
       </c>
       <c r="F136" s="0" t="n">
-        <v>1743</v>
+        <v>1935</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>24.55</v>
+        <v>27.25</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="137">
@@ -4799,16 +4799,16 @@
         <v>56</v>
       </c>
       <c r="F137" s="0" t="n">
-        <v>982</v>
+        <v>1071</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>17.54</v>
+        <v>19.13</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="138">
@@ -4828,16 +4828,16 @@
         <v>52</v>
       </c>
       <c r="F138" s="0" t="n">
-        <v>2168</v>
+        <v>2424</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>39.42</v>
+        <v>44.07</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="139">
@@ -4851,22 +4851,22 @@
         <v>24</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E139" s="0" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F139" s="0" t="n">
-        <v>2022</v>
+        <v>2863</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>37.44</v>
+        <v>52.05</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="140">
@@ -4880,22 +4880,22 @@
         <v>29</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E140" s="0" t="n">
         <v>47</v>
       </c>
       <c r="F140" s="0" t="n">
-        <v>1527</v>
+        <v>1698</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>29.37</v>
+        <v>33.29</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="141">
@@ -4906,25 +4906,25 @@
         <v>157</v>
       </c>
       <c r="C141" s="0" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D141" s="0" t="n">
         <v>49</v>
       </c>
       <c r="E141" s="0" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F141" s="0" t="n">
-        <v>431</v>
+        <v>964</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>8.8</v>
+        <v>19.67</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="142">
@@ -4935,25 +4935,25 @@
         <v>158</v>
       </c>
       <c r="C142" s="0" t="s">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D142" s="0" t="n">
         <v>49</v>
       </c>
       <c r="E142" s="0" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F142" s="0" t="n">
-        <v>854</v>
+        <v>491</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="H142" s="0" t="n">
-        <v>17.43</v>
+        <v>10.02</v>
       </c>
       <c r="I142" s="0" t="n">
-        <v>63</v>
+        <v>105</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="143">
@@ -4964,25 +4964,25 @@
         <v>159</v>
       </c>
       <c r="C143" s="0" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D143" s="0" t="n">
         <v>48</v>
       </c>
       <c r="E143" s="0" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F143" s="0" t="n">
-        <v>1617</v>
+        <v>572</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>33.69</v>
+        <v>11.92</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>103</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="144">
@@ -5002,16 +5002,16 @@
         <v>46</v>
       </c>
       <c r="F144" s="0" t="n">
-        <v>995</v>
+        <v>1106</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>20.73</v>
+        <v>23.04</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="145">
@@ -5022,25 +5022,25 @@
         <v>161</v>
       </c>
       <c r="C145" s="0" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D145" s="0" t="n">
         <v>48</v>
       </c>
       <c r="E145" s="0" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F145" s="0" t="n">
-        <v>1656</v>
+        <v>1797</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>197</v>
+        <v>63</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>34.5</v>
+        <v>37.44</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="146">
@@ -5060,16 +5060,16 @@
         <v>46</v>
       </c>
       <c r="F146" s="0" t="n">
-        <v>486</v>
+        <v>1699</v>
       </c>
       <c r="G146" s="0" t="n">
-        <v>71</v>
+        <v>220</v>
       </c>
       <c r="H146" s="0" t="n">
-        <v>10.34</v>
+        <v>36.15</v>
       </c>
       <c r="I146" s="0" t="n">
-        <v>58</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="147">
@@ -5089,16 +5089,16 @@
         <v>45</v>
       </c>
       <c r="F147" s="0" t="n">
-        <v>1095</v>
+        <v>1203</v>
       </c>
       <c r="G147" s="0" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H147" s="0" t="n">
-        <v>24.33</v>
+        <v>26.73</v>
       </c>
       <c r="I147" s="0" t="n">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="148">
@@ -5118,16 +5118,16 @@
         <v>44</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>1372</v>
+        <v>1477</v>
       </c>
       <c r="G148" s="0" t="n">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H148" s="0" t="n">
-        <v>31.18</v>
+        <v>33.57</v>
       </c>
       <c r="I148" s="0" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="149">
@@ -5147,16 +5147,16 @@
         <v>42</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>891</v>
+        <v>963</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>21.21</v>
+        <v>22.93</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="150">
@@ -5176,16 +5176,16 @@
         <v>40</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>1151</v>
+        <v>1310</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>28.78</v>
+        <v>32.75</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>99</v>
+        <v>111</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="151">
@@ -5199,22 +5199,22 @@
         <v>29</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E151" s="0" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>1184</v>
+        <v>884</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>30.36</v>
+        <v>22.1</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="152">
@@ -5231,19 +5231,19 @@
         <v>39</v>
       </c>
       <c r="E152" s="0" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>790</v>
+        <v>1324</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>20.26</v>
+        <v>33.95</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="153">
@@ -5263,16 +5263,16 @@
         <v>38</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>2139</v>
+        <v>2363</v>
       </c>
       <c r="G153" s="0" t="n">
         <v>35</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>56.29</v>
+        <v>62.18</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="154">
@@ -5292,16 +5292,16 @@
         <v>34</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>13.97</v>
+        <v>15.68</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="155">
@@ -5321,16 +5321,16 @@
         <v>25</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>823</v>
+        <v>893</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>24.94</v>
+        <v>27.06</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="156">
@@ -5350,16 +5350,16 @@
         <v>29</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>4816</v>
+        <v>5172</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>155.35</v>
+        <v>166.84</v>
       </c>
       <c r="I156" s="0" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="157">
@@ -5379,16 +5379,16 @@
         <v>25</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>571</v>
+        <v>639</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="H157" s="0" t="n">
-        <v>19.69</v>
+        <v>22.03</v>
       </c>
       <c r="I157" s="0" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="158">
@@ -5408,16 +5408,16 @@
         <v>24</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>429</v>
+        <v>462</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>15.32</v>
+        <v>16.5</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="159">
@@ -5428,25 +5428,25 @@
         <v>175</v>
       </c>
       <c r="C159" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D159" s="0" t="n">
         <v>27</v>
       </c>
       <c r="E159" s="0" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>688</v>
+        <v>988</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>25.48</v>
+        <v>36.59</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="160">
@@ -5457,25 +5457,25 @@
         <v>176</v>
       </c>
       <c r="C160" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E160" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>902</v>
+        <v>750</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>33.41</v>
+        <v>28.85</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="161">
@@ -5495,16 +5495,16 @@
         <v>23</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>17.08</v>
+        <v>18.8</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="162">
@@ -5521,19 +5521,19 @@
         <v>24</v>
       </c>
       <c r="E162" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>526</v>
+        <v>672</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>21.92</v>
+        <v>28</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="163">
@@ -5547,22 +5547,22 @@
         <v>49</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E163" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>610</v>
+        <v>572</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H163" s="0" t="n">
-        <v>25.42</v>
+        <v>24.87</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="164">
@@ -5582,16 +5582,16 @@
         <v>22</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>1071</v>
+        <v>1155</v>
       </c>
       <c r="G164" s="0" t="n">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="H164" s="0" t="n">
-        <v>46.57</v>
+        <v>50.22</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="165">
@@ -5611,16 +5611,16 @@
         <v>22</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>1061</v>
+        <v>1188</v>
       </c>
       <c r="G165" s="0" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H165" s="0" t="n">
-        <v>48.23</v>
+        <v>54</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="166">
@@ -5640,16 +5640,16 @@
         <v>21</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>465</v>
+        <v>549</v>
       </c>
       <c r="G166" s="0" t="n">
         <v>3</v>
       </c>
       <c r="H166" s="0" t="n">
-        <v>21.14</v>
+        <v>24.95</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="167">
@@ -5669,16 +5669,16 @@
         <v>17</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>1416</v>
+        <v>1713</v>
       </c>
       <c r="G167" s="0" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H167" s="0" t="n">
-        <v>67.43</v>
+        <v>81.57</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="168">
@@ -5698,16 +5698,16 @@
         <v>16</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>997</v>
+        <v>1141</v>
       </c>
       <c r="G168" s="0" t="n">
         <v>22</v>
       </c>
       <c r="H168" s="0" t="n">
-        <v>47.48</v>
+        <v>54.33</v>
       </c>
       <c r="I168" s="0" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="169">
@@ -5727,16 +5727,16 @@
         <v>20</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>761</v>
+        <v>857</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H169" s="0" t="n">
-        <v>38.05</v>
+        <v>42.85</v>
       </c>
       <c r="I169" s="0" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="170">
@@ -5756,16 +5756,16 @@
         <v>19</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H170" s="0" t="n">
-        <v>14.16</v>
+        <v>15.47</v>
       </c>
       <c r="I170" s="0" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="171">
@@ -5776,25 +5776,25 @@
         <v>187</v>
       </c>
       <c r="C171" s="0" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D171" s="0" t="n">
         <v>18</v>
       </c>
       <c r="E171" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>359</v>
+        <v>657</v>
       </c>
       <c r="G171" s="0" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="H171" s="0" t="n">
-        <v>19.94</v>
+        <v>36.5</v>
       </c>
       <c r="I171" s="0" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="172">
@@ -5805,7 +5805,7 @@
         <v>188</v>
       </c>
       <c r="C172" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D172" s="0" t="n">
         <v>18</v>
@@ -5814,16 +5814,16 @@
         <v>17</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>709</v>
+        <v>457</v>
       </c>
       <c r="G172" s="0" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H172" s="0" t="n">
-        <v>39.39</v>
+        <v>25.39</v>
       </c>
       <c r="I172" s="0" t="n">
-        <v>72</v>
+        <v>53</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="173">
@@ -5834,25 +5834,25 @@
         <v>189</v>
       </c>
       <c r="C173" s="0" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E173" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>264</v>
+        <v>392</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="H173" s="0" t="n">
-        <v>15.53</v>
+        <v>21.78</v>
       </c>
       <c r="I173" s="0" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="174">
@@ -5863,25 +5863,25 @@
         <v>190</v>
       </c>
       <c r="C174" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D174" s="0" t="n">
         <v>17</v>
       </c>
       <c r="E174" s="0" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>400</v>
+        <v>297</v>
       </c>
       <c r="G174" s="0" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="H174" s="0" t="n">
-        <v>23.53</v>
+        <v>17.47</v>
       </c>
       <c r="I174" s="0" t="n">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="175">
@@ -5901,16 +5901,16 @@
         <v>13</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>579</v>
+        <v>625</v>
       </c>
       <c r="G175" s="0" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H175" s="0" t="n">
-        <v>36.19</v>
+        <v>39.06</v>
       </c>
       <c r="I175" s="0" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="176">
@@ -5930,16 +5930,16 @@
         <v>16</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>315</v>
+        <v>358</v>
       </c>
       <c r="G176" s="0" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H176" s="0" t="n">
-        <v>19.69</v>
+        <v>22.38</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="177">
@@ -5953,22 +5953,22 @@
         <v>49</v>
       </c>
       <c r="D177" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E177" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E177" s="0" t="n">
-        <v>13</v>
-      </c>
       <c r="F177" s="0" t="n">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="G177" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H177" s="0" t="n">
-        <v>8.07</v>
+        <v>8.87</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="178">
@@ -5988,16 +5988,16 @@
         <v>13</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>484</v>
+        <v>530</v>
       </c>
       <c r="G178" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H178" s="0" t="n">
-        <v>34.57</v>
+        <v>37.86</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="179">
@@ -6017,16 +6017,16 @@
         <v>12</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>487</v>
+        <v>531</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>37.46</v>
+        <v>40.85</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="180">
@@ -6046,16 +6046,16 @@
         <v>13</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>955</v>
+        <v>1106</v>
       </c>
       <c r="G180" s="0" t="n">
         <v>22</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>73.46</v>
+        <v>85.08</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="181">
@@ -6075,16 +6075,16 @@
         <v>12</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>358</v>
+        <v>407</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>29.83</v>
+        <v>33.92</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="182">
@@ -6095,7 +6095,7 @@
         <v>198</v>
       </c>
       <c r="C182" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D182" s="0" t="n">
         <v>11</v>
@@ -6104,16 +6104,16 @@
         <v>11</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H182" s="0" t="n">
-        <v>28.45</v>
+        <v>26.09</v>
       </c>
       <c r="I182" s="0" t="n">
-        <v>39</v>
+        <v>64</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="183">
@@ -6124,7 +6124,7 @@
         <v>199</v>
       </c>
       <c r="C183" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D183" s="0" t="n">
         <v>11</v>
@@ -6133,16 +6133,16 @@
         <v>11</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>249</v>
+        <v>381</v>
       </c>
       <c r="G183" s="0" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H183" s="0" t="n">
-        <v>22.64</v>
+        <v>34.64</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="184">
@@ -6153,25 +6153,25 @@
         <v>200</v>
       </c>
       <c r="C184" s="0" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="D184" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E184" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>500</v>
+        <v>134</v>
       </c>
       <c r="G184" s="0" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H184" s="0" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="I184" s="0" t="n">
         <v>50</v>
-      </c>
-      <c r="I184" s="0" t="n">
-        <v>44</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="185">
@@ -6182,25 +6182,25 @@
         <v>201</v>
       </c>
       <c r="C185" s="0" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E185" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>115</v>
+        <v>162</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="186">
@@ -6220,16 +6220,16 @@
         <v>8</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>324</v>
+        <v>542</v>
       </c>
       <c r="G186" s="0" t="n">
         <v>25</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>36</v>
+        <v>60.22</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="187">
@@ -6246,19 +6246,19 @@
         <v>9</v>
       </c>
       <c r="E187" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>269</v>
+      </c>
+      <c r="G187" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F187" s="0" t="n">
-        <v>147</v>
-      </c>
-      <c r="G187" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="H187" s="0" t="n">
-        <v>16.33</v>
+        <v>29.89</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="188">
@@ -6269,7 +6269,7 @@
         <v>204</v>
       </c>
       <c r="C188" s="0" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D188" s="0" t="n">
         <v>9</v>
@@ -6278,16 +6278,16 @@
         <v>9</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="G188" s="0" t="n">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="H188" s="0" t="n">
-        <v>25.67</v>
+        <v>21.22</v>
       </c>
       <c r="I188" s="0" t="n">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="189">
@@ -6298,25 +6298,25 @@
         <v>205</v>
       </c>
       <c r="C189" s="0" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D189" s="0" t="n">
         <v>9</v>
       </c>
       <c r="E189" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>178</v>
+        <v>346</v>
       </c>
       <c r="G189" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H189" s="0" t="n">
-        <v>19.78</v>
+        <v>38.44</v>
       </c>
       <c r="I189" s="0" t="n">
-        <v>33</v>
+        <v>61</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="190">
@@ -6333,19 +6333,19 @@
         <v>8</v>
       </c>
       <c r="E190" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>349</v>
+        <v>165</v>
       </c>
       <c r="G190" s="0" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H190" s="0" t="n">
-        <v>43.63</v>
+        <v>20.63</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="191">
@@ -6362,19 +6362,19 @@
         <v>8</v>
       </c>
       <c r="E191" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F191" s="0" t="n">
+        <v>374</v>
+      </c>
+      <c r="G191" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F191" s="0" t="n">
-        <v>154</v>
-      </c>
-      <c r="G191" s="0" t="n">
-        <v>9</v>
-      </c>
       <c r="H191" s="0" t="n">
-        <v>19.25</v>
+        <v>46.75</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="192">
@@ -6394,16 +6394,16 @@
         <v>8</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="G192" s="0" t="n">
         <v>18</v>
       </c>
       <c r="H192" s="0" t="n">
-        <v>20.88</v>
+        <v>22</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="193">
@@ -6414,7 +6414,7 @@
         <v>209</v>
       </c>
       <c r="C193" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D193" s="0" t="n">
         <v>7</v>
@@ -6423,16 +6423,16 @@
         <v>7</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="H193" s="0" t="n">
-        <v>17.71</v>
+        <v>23.14</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="194">
@@ -6443,7 +6443,7 @@
         <v>210</v>
       </c>
       <c r="C194" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D194" s="0" t="n">
         <v>7</v>
@@ -6452,16 +6452,16 @@
         <v>7</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>21.29</v>
+        <v>19.57</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="195">
@@ -6481,16 +6481,16 @@
         <v>6</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="G195" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>33.17</v>
+        <v>37.5</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="196">
@@ -6501,25 +6501,25 @@
         <v>212</v>
       </c>
       <c r="C196" s="0" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D196" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E196" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>73</v>
+        <v>185</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>12.17</v>
+        <v>30.83</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="197">
@@ -6530,7 +6530,7 @@
         <v>213</v>
       </c>
       <c r="C197" s="0" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D197" s="0" t="n">
         <v>6</v>
@@ -6542,13 +6542,13 @@
         <v>70</v>
       </c>
       <c r="G197" s="0" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="H197" s="0" t="n">
         <v>11.67</v>
       </c>
       <c r="I197" s="0" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="198">
@@ -6559,7 +6559,7 @@
         <v>214</v>
       </c>
       <c r="C198" s="0" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D198" s="0" t="n">
         <v>6</v>
@@ -6568,16 +6568,16 @@
         <v>6</v>
       </c>
       <c r="F198" s="0" t="n">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="G198" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="H198" s="0" t="n">
-        <v>10.5</v>
+        <v>13.83</v>
       </c>
       <c r="I198" s="0" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="199">
@@ -6588,25 +6588,25 @@
         <v>215</v>
       </c>
       <c r="C199" s="0" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D199" s="0" t="n">
         <v>6</v>
       </c>
       <c r="E199" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>73</v>
+      </c>
+      <c r="G199" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F199" s="0" t="n">
-        <v>157</v>
-      </c>
-      <c r="G199" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="H199" s="0" t="n">
-        <v>26.17</v>
+        <v>12.17</v>
       </c>
       <c r="I199" s="0" t="n">
-        <v>31</v>
+        <v>68</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="200">
@@ -6626,16 +6626,16 @@
         <v>4</v>
       </c>
       <c r="F200" s="0" t="n">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="G200" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="201">
@@ -6646,7 +6646,7 @@
         <v>217</v>
       </c>
       <c r="C201" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D201" s="0" t="n">
         <v>5</v>
@@ -6655,16 +6655,16 @@
         <v>5</v>
       </c>
       <c r="F201" s="0" t="n">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>34.4</v>
+        <v>33.2</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="202">
@@ -6675,7 +6675,7 @@
         <v>218</v>
       </c>
       <c r="C202" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D202" s="0" t="n">
         <v>5</v>
@@ -6684,16 +6684,16 @@
         <v>5</v>
       </c>
       <c r="F202" s="0" t="n">
-        <v>154</v>
+        <v>188</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>30.8</v>
+        <v>37.6</v>
       </c>
       <c r="I202" s="0" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="203">
@@ -6710,19 +6710,19 @@
         <v>4</v>
       </c>
       <c r="E203" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>131</v>
+        <v>59</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>32.75</v>
+        <v>14.75</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="204">
@@ -6733,25 +6733,25 @@
         <v>220</v>
       </c>
       <c r="C204" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D204" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E204" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>20</v>
+        <v>140</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="205">
@@ -6762,7 +6762,7 @@
         <v>221</v>
       </c>
       <c r="C205" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D205" s="0" t="n">
         <v>4</v>
@@ -6771,16 +6771,16 @@
         <v>3</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>13.75</v>
+        <v>6.25</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="206">
@@ -6791,7 +6791,7 @@
         <v>222</v>
       </c>
       <c r="C206" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D206" s="0" t="n">
         <v>3</v>
@@ -6800,16 +6800,16 @@
         <v>3</v>
       </c>
       <c r="F206" s="0" t="n">
-        <v>20</v>
+        <v>268</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>6.67</v>
+        <v>89.33</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="207">
@@ -6820,25 +6820,25 @@
         <v>223</v>
       </c>
       <c r="C207" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D207" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E207" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F207" s="0" t="n">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>4.33</v>
+        <v>30</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="208">
@@ -6849,7 +6849,7 @@
         <v>224</v>
       </c>
       <c r="C208" s="0" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D208" s="0" t="n">
         <v>3</v>
@@ -6858,16 +6858,16 @@
         <v>3</v>
       </c>
       <c r="F208" s="0" t="n">
-        <v>243</v>
+        <v>7</v>
       </c>
       <c r="G208" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>81</v>
+        <v>2.33</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="209">
@@ -6887,16 +6887,16 @@
         <v>3</v>
       </c>
       <c r="F209" s="0" t="n">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>27.67</v>
+        <v>6.67</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="210">
@@ -6907,25 +6907,25 @@
         <v>226</v>
       </c>
       <c r="C210" s="0" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D210" s="0" t="n">
         <v>3</v>
       </c>
       <c r="E210" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F210" s="0" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>2.33</v>
+        <v>5.33</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="211">
@@ -6936,7 +6936,7 @@
         <v>227</v>
       </c>
       <c r="C211" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D211" s="0" t="n">
         <v>2</v>
@@ -6945,16 +6945,16 @@
         <v>2</v>
       </c>
       <c r="F211" s="0" t="n">
-        <v>4</v>
+        <v>193</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>2</v>
+        <v>96.5</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="212">
@@ -6965,7 +6965,7 @@
         <v>228</v>
       </c>
       <c r="C212" s="0" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="D212" s="0" t="n">
         <v>2</v>
@@ -6974,16 +6974,16 @@
         <v>2</v>
       </c>
       <c r="F212" s="0" t="n">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>85</v>
+        <v>2.5</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="213">
@@ -7003,16 +7003,16 @@
         <v>2</v>
       </c>
       <c r="F213" s="0" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G213" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>39</v>
+        <v>42.5</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="214">
@@ -7023,7 +7023,7 @@
         <v>230</v>
       </c>
       <c r="C214" s="0" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="D214" s="0" t="n">
         <v>2</v>
@@ -7032,16 +7032,16 @@
         <v>2</v>
       </c>
       <c r="F214" s="0" t="n">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="G214" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>39.5</v>
+        <v>11</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="215">
@@ -7061,16 +7061,16 @@
         <v>2</v>
       </c>
       <c r="F215" s="0" t="n">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G215" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="216">
@@ -7081,7 +7081,7 @@
         <v>232</v>
       </c>
       <c r="C216" s="0" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="D216" s="0" t="n">
         <v>2</v>
@@ -7090,16 +7090,16 @@
         <v>2</v>
       </c>
       <c r="F216" s="0" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="217">
@@ -7110,7 +7110,7 @@
         <v>233</v>
       </c>
       <c r="C217" s="0" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D217" s="0" t="n">
         <v>2</v>
@@ -7119,16 +7119,16 @@
         <v>2</v>
       </c>
       <c r="F217" s="0" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="218">
@@ -7139,7 +7139,7 @@
         <v>234</v>
       </c>
       <c r="C218" s="0" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="D218" s="0" t="n">
         <v>2</v>
@@ -7148,16 +7148,16 @@
         <v>2</v>
       </c>
       <c r="F218" s="0" t="n">
-        <v>78</v>
+        <v>24</v>
       </c>
       <c r="G218" s="0" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="219">
@@ -7168,7 +7168,7 @@
         <v>235</v>
       </c>
       <c r="C219" s="0" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D219" s="0" t="n">
         <v>2</v>
@@ -7177,16 +7177,16 @@
         <v>2</v>
       </c>
       <c r="F219" s="0" t="n">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>10.5</v>
+        <v>43.5</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="220">
@@ -7206,16 +7206,16 @@
         <v>1</v>
       </c>
       <c r="F220" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G220" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="221">
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="222">
@@ -7264,16 +7264,16 @@
         <v>1</v>
       </c>
       <c r="F222" s="0" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G222" s="0" t="n">
         <v>1</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="I222" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="223">
@@ -7293,16 +7293,16 @@
         <v>1</v>
       </c>
       <c r="F223" s="0" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G223" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H223" s="0" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I223" s="0" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
